--- a/WindowsFormsApplication1/bin/Debug/excelFile.xlsx
+++ b/WindowsFormsApplication1/bin/Debug/excelFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>h15</t>
+  </si>
+  <si>
+    <t>dd1</t>
+  </si>
+  <si>
+    <t>cc2</t>
+  </si>
+  <si>
+    <t>bb3</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +754,192 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
